--- a/DataTables/Datas/__enums__.xlsx
+++ b/DataTables/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProject\MyProject\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922AB45C-3645-467C-B862-ECBEDF6D46D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B697CFCE-AB70-4D98-9DD8-B931A4FEC784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>Enum.TriggerType</t>
   </si>
   <si>
     <t>None</t>
@@ -96,6 +93,18 @@
   </si>
   <si>
     <t>战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -153,9 +162,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -500,13 +509,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="15">
       <c r="A2" s="1" t="s">
@@ -567,7 +576,7 @@
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
@@ -579,7 +588,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
@@ -597,14 +606,14 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>23</v>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -617,14 +626,14 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>24</v>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -636,10 +645,16 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="15">
@@ -649,6 +664,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="15">
@@ -696,6 +716,15 @@
       <c r="F13" s="1"/>
       <c r="L13" s="1"/>
     </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
